--- a/List.xlsx
+++ b/List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\OneDrive\MyCourse\test-mail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E84BC0D-912E-4D6B-BF9B-4B8E1709458C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A3A768-31E1-4F0C-B0A6-E46BAAC63C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1032" yWindow="2844" windowWidth="23040" windowHeight="11448" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="912" windowWidth="23040" windowHeight="11448" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,30 +36,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>gen</t>
-  </si>
-  <si>
-    <t>nam</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
     <t>mail</t>
   </si>
   <si>
-    <t>bro</t>
-  </si>
-  <si>
     <t>Trần</t>
   </si>
   <si>
-    <t>12345678@gmail.com</t>
-  </si>
-  <si>
-    <t>87654321@gmail.com</t>
-  </si>
-  <si>
     <t>attachment_name</t>
   </si>
   <si>
@@ -78,7 +63,22 @@
     <t>C:\Users\pc\OneDrive\MyCourse\test-mail\attachment\2.txt</t>
   </si>
   <si>
-    <t>Bro</t>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs. </t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>TranBinhLuat</t>
+  </si>
+  <si>
+    <t>123456789@gmail.com</t>
+  </si>
+  <si>
+    <t>987654321@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,53 +430,53 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
